--- a/Hybrid_Framework/DataTables/HybridResults.xlsx
+++ b/Hybrid_Framework/DataTables/HybridResults.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent>
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Live_Run\Hybrid_Framework\DataTables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chinmay\git\Second_HybridFramework\Hybrid_Framework\DataTables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5D3621A-5123-4B91-A3E7-4B74B857918A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEABADD8-8BD5-4C79-97E3-8614CFD4552D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9630" yWindow="2138" windowWidth="11265" windowHeight="9307" xr2:uid="{16E88B5A-B4CD-4FD0-9052-7F57F252A037}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="565" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="525" uniqueCount="136">
   <si>
     <t>TCID</t>
   </si>
@@ -465,10 +465,10 @@
     <t>Verify customer number</t>
   </si>
   <si>
+    <t>Pass</t>
+  </si>
+  <si>
     <t>Blocked</t>
-  </si>
-  <si>
-    <t>Pass</t>
   </si>
 </sst>
 </file>
@@ -476,7 +476,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="0"/>
-  <fonts count="69" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -638,206 +638,6 @@
       <sz val="11.0"/>
       <b val="true"/>
     </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <sz val="11.0"/>
-      <b val="true"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -854,22 +654,22 @@
     </fill>
     <fill>
       <patternFill patternType="none">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="17"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="none">
         <fgColor indexed="12"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor indexed="12"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="17"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="17"/>
       </patternFill>
     </fill>
   </fills>
@@ -911,7 +711,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -932,66 +732,26 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="20" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="25" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="18" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="20" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="21" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="23" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="24" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="25" fillId="4" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
     <xf numFmtId="0" fontId="28" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="29" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="30" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="32" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="34" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="35" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="36" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="37" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="38" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="39" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="41" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="42" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="43" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="45" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="47" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="48" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="49" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="50" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="51" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="52" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="53" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="54" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="55" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="56" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="57" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="58" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="59" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="60" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="61" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="62" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="63" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="64" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="65" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="66" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="67" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="68" fillId="6" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1341,9 +1101,9 @@
         <v>8</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s" s="11">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s" s="30">
         <v>134</v>
       </c>
     </row>
@@ -1357,8 +1117,8 @@
       <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" t="s" s="12">
-        <v>134</v>
+      <c r="D3" t="s" s="31">
+        <v>135</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.45">
@@ -1371,8 +1131,8 @@
       <c r="C4" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D4" t="s" s="13">
-        <v>134</v>
+      <c r="D4" t="s" s="32">
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.45">
@@ -1383,9 +1143,9 @@
         <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="73">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s" s="33">
         <v>135</v>
       </c>
     </row>
@@ -1448,7 +1208,9 @@
       <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" s="1"/>
+      <c r="F2" t="s" s="11">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
@@ -1466,7 +1228,9 @@
       <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="1"/>
+      <c r="F3" t="s" s="13">
+        <v>134</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="16.5" x14ac:dyDescent="0.6">
       <c r="A4" s="4" t="s">
@@ -1484,7 +1248,9 @@
       <c r="E4" s="4">
         <v>10</v>
       </c>
-      <c r="F4" s="1"/>
+      <c r="F4" t="s" s="15">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" s="4" t="s">
@@ -1502,7 +1268,9 @@
       <c r="E5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="1"/>
+      <c r="F5" t="s" s="17">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" s="4" t="s">
@@ -1520,7 +1288,9 @@
       <c r="E6" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="1"/>
+      <c r="F6" t="s" s="19">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" s="4" t="s">
@@ -1538,7 +1308,9 @@
       <c r="E7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F7" s="1"/>
+      <c r="F7" t="s" s="21">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" s="4" t="s">
@@ -1556,7 +1328,9 @@
       <c r="E8" s="4">
         <v>10</v>
       </c>
-      <c r="F8" s="1"/>
+      <c r="F8" t="s" s="23">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" s="4" t="s">
@@ -1574,7 +1348,9 @@
       <c r="E9" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="F9" s="1"/>
+      <c r="F9" t="s" s="25">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" s="4" t="s">
@@ -1592,7 +1368,9 @@
       <c r="E10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F10" s="1"/>
+      <c r="F10" t="s" s="27">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" s="4" t="s">
@@ -1610,7 +1388,9 @@
       <c r="E11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" t="s" s="29">
+        <v>134</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2802,9 +2582,7 @@
       <c r="E2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s" s="14">
-        <v>135</v>
-      </c>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A3" s="6" t="s">
@@ -2822,9 +2600,7 @@
       <c r="E3" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s" s="16">
-        <v>135</v>
-      </c>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A4" s="6" t="s">
@@ -2842,9 +2618,7 @@
       <c r="E4" s="6">
         <v>10</v>
       </c>
-      <c r="F4" t="s" s="18">
-        <v>135</v>
-      </c>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A5" s="6" t="s">
@@ -2862,9 +2636,7 @@
       <c r="E5" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="F5" t="s" s="20">
-        <v>135</v>
-      </c>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A6" s="6" t="s">
@@ -2882,9 +2654,7 @@
       <c r="E6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F6" t="s" s="22">
-        <v>135</v>
-      </c>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A7" s="6" t="s">
@@ -2902,9 +2672,7 @@
       <c r="E7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F7" t="s" s="24">
-        <v>135</v>
-      </c>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A8" s="6" t="s">
@@ -2922,9 +2690,7 @@
       <c r="E8" s="6">
         <v>10</v>
       </c>
-      <c r="F8" t="s" s="26">
-        <v>135</v>
-      </c>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A9" s="6" t="s">
@@ -2942,9 +2708,7 @@
       <c r="E9" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="F9" t="s" s="28">
-        <v>135</v>
-      </c>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A10" s="6" t="s">
@@ -2962,9 +2726,7 @@
       <c r="E10" s="6">
         <v>10</v>
       </c>
-      <c r="F10" t="s" s="30">
-        <v>135</v>
-      </c>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A11" s="6" t="s">
@@ -2982,9 +2744,7 @@
       <c r="E11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="32">
-        <v>135</v>
-      </c>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A12" s="6" t="s">
@@ -3002,9 +2762,7 @@
       <c r="E12" s="6">
         <v>10</v>
       </c>
-      <c r="F12" t="s" s="34">
-        <v>135</v>
-      </c>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A13" s="6" t="s">
@@ -3022,9 +2780,7 @@
       <c r="E13" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F13" t="s" s="36">
-        <v>135</v>
-      </c>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A14" s="6" t="s">
@@ -3042,9 +2798,7 @@
       <c r="E14" s="6">
         <v>10</v>
       </c>
-      <c r="F14" t="s" s="38">
-        <v>135</v>
-      </c>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A15" s="6" t="s">
@@ -3062,9 +2816,7 @@
       <c r="E15" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F15" t="s" s="40">
-        <v>135</v>
-      </c>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A16" s="6" t="s">
@@ -3082,9 +2834,7 @@
       <c r="E16" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="F16" t="s" s="42">
-        <v>135</v>
-      </c>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A17" s="6" t="s">
@@ -3102,9 +2852,7 @@
       <c r="E17" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="F17" t="s" s="44">
-        <v>135</v>
-      </c>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A18" s="6" t="s">
@@ -3122,9 +2870,7 @@
       <c r="E18" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="F18" t="s" s="46">
-        <v>135</v>
-      </c>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A19" s="6" t="s">
@@ -3142,9 +2888,7 @@
       <c r="E19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="F19" t="s" s="48">
-        <v>135</v>
-      </c>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A20" s="6" t="s">
@@ -3162,9 +2906,7 @@
       <c r="E20" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="F20" t="s" s="50">
-        <v>135</v>
-      </c>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A21" s="6" t="s">
@@ -3182,9 +2924,7 @@
       <c r="E21" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="F21" t="s" s="52">
-        <v>135</v>
-      </c>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A22" s="6" t="s">
@@ -3202,9 +2942,7 @@
       <c r="E22" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="F22" t="s" s="54">
-        <v>135</v>
-      </c>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A23" s="6" t="s">
@@ -3222,9 +2960,7 @@
       <c r="E23" s="6">
         <v>5478954555</v>
       </c>
-      <c r="F23" t="s" s="56">
-        <v>135</v>
-      </c>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A24" s="6" t="s">
@@ -3242,9 +2978,7 @@
       <c r="E24" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="F24" t="s" s="58">
-        <v>135</v>
-      </c>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A25" s="6" t="s">
@@ -3262,9 +2996,7 @@
       <c r="E25" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="60">
-        <v>135</v>
-      </c>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A26" s="6" t="s">
@@ -3282,9 +3014,7 @@
       <c r="E26" s="6">
         <v>10</v>
       </c>
-      <c r="F26" t="s" s="62">
-        <v>135</v>
-      </c>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A27" s="6" t="s">
@@ -3302,9 +3032,7 @@
       <c r="E27" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F27" t="s" s="64">
-        <v>135</v>
-      </c>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A28" s="6" t="s">
@@ -3322,9 +3050,7 @@
       <c r="E28" s="6">
         <v>10</v>
       </c>
-      <c r="F28" t="s" s="66">
-        <v>135</v>
-      </c>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A29" s="6" t="s">
@@ -3342,9 +3068,7 @@
       <c r="E29" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F29" t="s" s="68">
-        <v>135</v>
-      </c>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A30" s="6" t="s">
@@ -3362,9 +3086,7 @@
       <c r="E30" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F30" t="s" s="70">
-        <v>135</v>
-      </c>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A31" s="6" t="s">
@@ -3382,9 +3104,7 @@
       <c r="E31" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="72">
-        <v>135</v>
-      </c>
+      <c r="F31" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
